--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xtemper/eclipse-workspace/Hospital-Management-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B377668E-9DAC-DF42-882A-81E961EBEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553B5DF-9DFD-A14C-94A9-60E177131B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{E7DC055F-553A-E548-A42B-279EED18D91E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{E7DC055F-553A-E548-A42B-279EED18D91E}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctors" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
   <si>
     <t>Specialization</t>
   </si>
@@ -682,335 +682,190 @@
     <t>02:35</t>
   </si>
   <si>
-    <t>Harsh</t>
-  </si>
-  <si>
-    <t>ahsafas@hfahf.com</t>
-  </si>
-  <si>
-    <t>Prakahs</t>
-  </si>
-  <si>
-    <t>TQjNHTZkZR3ZvxH8RbTl24EyZ_wYV7V4</t>
-  </si>
-  <si>
-    <t>qwegqw</t>
-  </si>
-  <si>
-    <t>afigf</t>
-  </si>
-  <si>
-    <t>fgqwfgq</t>
-  </si>
-  <si>
-    <t>jgoMsNdQW3KqYfZmZOhC4HAfrO0_YXKP</t>
-  </si>
-  <si>
-    <t>haD</t>
-  </si>
-  <si>
-    <t>SAFBASBF</t>
-  </si>
-  <si>
-    <t>FBSAF</t>
-  </si>
-  <si>
-    <t>R4ld8ClsEUUuNFuz8pq_niSNea9nvlgu</t>
-  </si>
-  <si>
-    <t>hiehwr</t>
-  </si>
-  <si>
-    <t>afhaf</t>
-  </si>
-  <si>
-    <t>ahuorqa</t>
-  </si>
-  <si>
-    <t>6tpOYUQx09ElfuN7_jTpJVn5QVRQEm3N</t>
-  </si>
-  <si>
-    <t>asdbasd</t>
-  </si>
-  <si>
-    <t>cbakbca</t>
-  </si>
-  <si>
-    <t>fsabfa</t>
-  </si>
-  <si>
-    <t>SCXcN14v6ycKdQsw_0O-qGxmh-JuJc6F</t>
-  </si>
-  <si>
-    <t>qrjhwqhr</t>
-  </si>
-  <si>
-    <t>hrqiwrh</t>
-  </si>
-  <si>
-    <t>riqwhrqw</t>
-  </si>
-  <si>
-    <t>k_96DRUeRHd3TtD3_qryPvdEzG2_3XnR</t>
-  </si>
-  <si>
-    <t>arawr</t>
-  </si>
-  <si>
-    <t>sgtaet</t>
-  </si>
-  <si>
-    <t>asrar</t>
-  </si>
-  <si>
-    <t>VL3_DNxvOh342RnPnQt0bnLhcuzZR9Zr</t>
-  </si>
-  <si>
-    <t>ahrashr</t>
-  </si>
-  <si>
-    <t>faklba</t>
-  </si>
-  <si>
-    <t>afbasf</t>
-  </si>
-  <si>
-    <t>Obstetrics</t>
-  </si>
-  <si>
-    <t>NWijlY43OjvzdycUSu7-fysNswOyFTpj</t>
-  </si>
-  <si>
-    <t>fafasf</t>
-  </si>
-  <si>
-    <t>fasjfba</t>
-  </si>
-  <si>
-    <t>fxSTgvRHWY3FIdWWUn0UOzQEb3QfVDRp</t>
-  </si>
-  <si>
-    <t>ggafzs</t>
-  </si>
-  <si>
-    <t>abfa</t>
-  </si>
-  <si>
-    <t>akfbas</t>
-  </si>
-  <si>
-    <t>UhKBj5jRUcmj454Gm8jlQWaGS1YQ7OTQ</t>
-  </si>
-  <si>
-    <t>harsh@xtemper.socail</t>
-  </si>
-  <si>
-    <t>Prakash</t>
-  </si>
-  <si>
-    <t>HHxW1vkGs38MwBo9LP5FuJ85OXF0oScC</t>
-  </si>
-  <si>
-    <t>xtemper</t>
-  </si>
-  <si>
-    <t>3rQXvgAT0bjM8gQjBODcoXGRCU5OpEy3</t>
-  </si>
-  <si>
-    <t>fasfhqa</t>
-  </si>
-  <si>
-    <t>afanfa@fna.com</t>
-  </si>
-  <si>
-    <t>fanfnas</t>
-  </si>
-  <si>
-    <t>F-YdxcU5Vn53LW5OUfsWmJkG98yn0OYo</t>
-  </si>
-  <si>
-    <t>[C@1ffaf86</t>
-  </si>
-  <si>
-    <t>ahrshpra@fkbaf.cas</t>
-  </si>
-  <si>
-    <t>hafaf</t>
-  </si>
-  <si>
-    <t>FEfghS9imG2AVNhSvjUYt9e7w11YL01t</t>
-  </si>
-  <si>
-    <t>afbaskf@kabkf.casc</t>
-  </si>
-  <si>
-    <t>d1eTsowePCmumTZyJZAaYR3ENU8Wjx1o</t>
-  </si>
-  <si>
-    <t>ghjgj@jhfh.cuyf</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>DocUserAcc</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Admin Access</t>
+  </si>
+  <si>
+    <t>Doctor Access</t>
+  </si>
+  <si>
+    <t>ADMINSTRATOR</t>
+  </si>
+  <si>
+    <t>Passwords</t>
+  </si>
+  <si>
+    <t>TempPass3</t>
+  </si>
+  <si>
+    <t>TempPass4</t>
+  </si>
+  <si>
+    <t>TempPass5</t>
+  </si>
+  <si>
+    <t>TempPass6</t>
+  </si>
+  <si>
+    <t>TempPass7</t>
+  </si>
+  <si>
+    <t>TempPass8</t>
+  </si>
+  <si>
+    <t>TempPass9</t>
+  </si>
+  <si>
+    <t>TempPass10</t>
+  </si>
+  <si>
+    <t>TempPass11</t>
+  </si>
+  <si>
+    <t>TempPass12</t>
+  </si>
+  <si>
+    <t>TempPass13</t>
+  </si>
+  <si>
+    <t>TempPass14</t>
+  </si>
+  <si>
+    <t>TempPass15</t>
+  </si>
+  <si>
+    <t>TempPass16</t>
+  </si>
+  <si>
+    <t>TempPass17</t>
+  </si>
+  <si>
+    <t>TempPass18</t>
+  </si>
+  <si>
+    <t>TempPass19</t>
+  </si>
+  <si>
+    <t>TempPass20</t>
+  </si>
+  <si>
+    <t>TempPass21</t>
+  </si>
+  <si>
+    <t>TempPass22</t>
+  </si>
+  <si>
+    <t>TempPass23</t>
+  </si>
+  <si>
+    <t>TempPass24</t>
+  </si>
+  <si>
+    <t>TempPass25</t>
+  </si>
+  <si>
+    <t>TempPass26</t>
+  </si>
+  <si>
+    <t>TempPass27</t>
+  </si>
+  <si>
+    <t>TempPass28</t>
+  </si>
+  <si>
+    <t>TempPass29</t>
+  </si>
+  <si>
+    <t>TempPass30</t>
+  </si>
+  <si>
+    <t>TempPass31</t>
+  </si>
+  <si>
+    <t>TempPass32</t>
+  </si>
+  <si>
+    <t>TempPass33</t>
+  </si>
+  <si>
+    <t>TempPass34</t>
+  </si>
+  <si>
+    <t>TempPass35</t>
+  </si>
+  <si>
+    <t>TempPass36</t>
+  </si>
+  <si>
+    <t>TempPass37</t>
+  </si>
+  <si>
+    <t>TempPass38</t>
+  </si>
+  <si>
+    <t>TempPass39</t>
+  </si>
+  <si>
+    <t>TempPass40</t>
+  </si>
+  <si>
+    <t>TempPass41</t>
+  </si>
+  <si>
+    <t>yY6q0giUu1szWdY7Xuq0XA==</t>
+  </si>
+  <si>
+    <t>Q0wdeFOeG4Q9kZKq6/3xfw==</t>
+  </si>
+  <si>
+    <t>Avaiablility</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>porb</t>
   </si>
   <si>
     <t>harsh</t>
   </si>
   <si>
-    <t>ai14e4mu5DVlVhpk-NflHZEBb1tdwjsu</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>DocUserAcc</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Admin Access</t>
-  </si>
-  <si>
-    <t>Doctor Access</t>
-  </si>
-  <si>
-    <t>ADMINSTRATOR</t>
-  </si>
-  <si>
-    <t>Passwords</t>
-  </si>
-  <si>
-    <t>TempPass1</t>
-  </si>
-  <si>
-    <t>TempPass2</t>
-  </si>
-  <si>
-    <t>TempPass3</t>
-  </si>
-  <si>
-    <t>TempPass4</t>
-  </si>
-  <si>
-    <t>TempPass5</t>
-  </si>
-  <si>
-    <t>TempPass6</t>
-  </si>
-  <si>
-    <t>TempPass7</t>
-  </si>
-  <si>
-    <t>TempPass8</t>
-  </si>
-  <si>
-    <t>TempPass9</t>
-  </si>
-  <si>
-    <t>TempPass10</t>
-  </si>
-  <si>
-    <t>TempPass11</t>
-  </si>
-  <si>
-    <t>TempPass12</t>
-  </si>
-  <si>
-    <t>TempPass13</t>
-  </si>
-  <si>
-    <t>TempPass14</t>
-  </si>
-  <si>
-    <t>TempPass15</t>
-  </si>
-  <si>
-    <t>TempPass16</t>
-  </si>
-  <si>
-    <t>TempPass17</t>
-  </si>
-  <si>
-    <t>TempPass18</t>
-  </si>
-  <si>
-    <t>TempPass19</t>
-  </si>
-  <si>
-    <t>TempPass20</t>
-  </si>
-  <si>
-    <t>TempPass21</t>
-  </si>
-  <si>
-    <t>TempPass22</t>
-  </si>
-  <si>
-    <t>TempPass23</t>
-  </si>
-  <si>
-    <t>TempPass24</t>
-  </si>
-  <si>
-    <t>TempPass25</t>
-  </si>
-  <si>
-    <t>TempPass26</t>
-  </si>
-  <si>
-    <t>TempPass27</t>
-  </si>
-  <si>
-    <t>TempPass28</t>
-  </si>
-  <si>
-    <t>TempPass29</t>
-  </si>
-  <si>
-    <t>TempPass30</t>
-  </si>
-  <si>
-    <t>TempPass31</t>
-  </si>
-  <si>
-    <t>TempPass32</t>
-  </si>
-  <si>
-    <t>TempPass33</t>
-  </si>
-  <si>
-    <t>TempPass34</t>
-  </si>
-  <si>
-    <t>TempPass35</t>
-  </si>
-  <si>
-    <t>TempPass36</t>
-  </si>
-  <si>
-    <t>TempPass37</t>
-  </si>
-  <si>
-    <t>TempPass38</t>
-  </si>
-  <si>
-    <t>TempPass39</t>
-  </si>
-  <si>
-    <t>TempPass40</t>
-  </si>
-  <si>
-    <t>TempPass41</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>yY6q0giUu1szWdY7Xuq0XA==</t>
+    <t>harshroy@xtemper.social</t>
+  </si>
+  <si>
+    <t>roy</t>
+  </si>
+  <si>
+    <t>5mQhWRlQryN05zbUjwoIwcr-pFZ6BzOY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1108,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1117,6 +972,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1434,25 +1290,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0D105A-FD2A-654D-8CB3-4351D71E1C75}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.0"/>
-    <col min="2" max="2" customWidth="true" style="1" width="38.6640625"/>
-    <col min="3" max="3" customWidth="true" style="1" width="27.5"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.83203125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.33203125"/>
-    <col min="6" max="6" customWidth="true" style="1" width="18.5"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.5"/>
-    <col min="8" max="8" customWidth="true" style="1" width="33.83203125"/>
-    <col min="9" max="9" customWidth="true" style="1" width="27.33203125"/>
-    <col min="10" max="10" customWidth="true" style="1" width="27.83203125"/>
-    <col min="11" max="11" customWidth="true" style="1" width="44.6640625"/>
-    <col min="12" max="12" customWidth="true" style="1" width="23.5"/>
-    <col min="13" max="16384" style="1" width="10.83203125"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1487,9 +1344,11 @@
         <v>164</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L1" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1520,10 +1379,10 @@
         <v>175</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>320</v>
+        <v>260</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1555,7 +1414,10 @@
         <v>176</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>280</v>
+        <v>261</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1587,7 +1449,10 @@
         <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>281</v>
+        <v>221</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1619,7 +1484,10 @@
         <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>222</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1651,7 +1519,10 @@
         <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>223</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1683,7 +1554,10 @@
         <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>224</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1715,7 +1589,10 @@
         <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>225</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1747,7 +1624,10 @@
         <v>172</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>286</v>
+        <v>226</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1779,7 +1659,10 @@
         <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>227</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1811,7 +1694,10 @@
         <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>228</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1843,7 +1729,10 @@
         <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>229</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1875,7 +1764,10 @@
         <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>230</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1907,7 +1799,10 @@
         <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>231</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1939,7 +1834,10 @@
         <v>187</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>292</v>
+        <v>232</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -1971,10 +1869,13 @@
         <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2003,10 +1904,13 @@
         <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2035,10 +1939,13 @@
         <v>190</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2067,10 +1974,13 @@
         <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2099,10 +2009,13 @@
         <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2131,10 +2044,13 @@
         <v>193</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2163,10 +2079,13 @@
         <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2195,10 +2114,13 @@
         <v>195</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2227,10 +2149,13 @@
         <v>196</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2259,10 +2184,13 @@
         <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2291,10 +2219,13 @@
         <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2323,10 +2254,13 @@
         <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2355,10 +2289,13 @@
         <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2387,10 +2324,13 @@
         <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2419,10 +2359,13 @@
         <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2451,10 +2394,13 @@
         <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2483,10 +2429,13 @@
         <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2515,10 +2464,13 @@
         <v>205</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2547,10 +2499,13 @@
         <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2579,10 +2534,13 @@
         <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2611,10 +2569,13 @@
         <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2643,10 +2604,13 @@
         <v>173</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2675,10 +2639,13 @@
         <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2707,10 +2674,13 @@
         <v>210</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2739,10 +2709,13 @@
         <v>211</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2771,10 +2744,13 @@
         <v>212</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2782,40 +2758,43 @@
         <v>213</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2980,45 +2959,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="22.0"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.0"/>
-    <col min="3" max="3" customWidth="true" style="3" width="38.0"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.5"/>
-    <col min="5" max="5" customWidth="true" style="3" width="22.6640625"/>
-    <col min="6" max="6" customWidth="true" style="3" width="25.5"/>
-    <col min="7" max="7" customWidth="true" style="3" width="23.1640625"/>
-    <col min="8" max="16384" style="3" width="10.83203125"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3028,543 +3007,274 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386938A-AF24-7640-9BF5-B2E3BA95BE62}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="28.5"/>
-    <col min="3" max="3" customWidth="true" width="10.83203125"/>
-    <col min="4" max="4" customWidth="true" width="20.6640625"/>
-    <col min="5" max="5" customWidth="true" width="25.5"/>
-    <col min="6" max="6" customWidth="true" width="25.33203125"/>
-    <col min="7" max="7" customWidth="true" width="28.1640625"/>
-    <col min="8" max="9" customWidth="true" width="10.83203125"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>215</v>
-      </c>
-      <c r="F2" s="0">
-        <v>90131231</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="0">
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2">
+        <v>8009528958</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>221</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>219</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1213</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>223</v>
-      </c>
-      <c r="F4" s="0">
-        <v>3212</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="0">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>228</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>227</v>
-      </c>
-      <c r="F5" s="0">
-        <v>23423</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="0">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>230</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>232</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="F6" s="0">
-        <v>321</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="0">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="F7" s="0">
-        <v>532412</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="0">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>241</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="F8" s="0">
-        <v>4223432</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="0">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>244</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="F9" s="0">
-        <v>23213</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="0">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>247</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>244</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>248</v>
-      </c>
-      <c r="F10" s="0">
-        <v>34242</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="0">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>252</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="F11" s="0">
-        <v>423423</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="0">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>254</v>
-      </c>
-      <c r="F12" s="0">
-        <v>8009528958</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="0">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>258</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="F13" s="0">
-        <v>2312414</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="0">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="F14" s="0">
-        <v>423424</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="0">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="F15" s="0">
-        <v>8400985110</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="0">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="F16" s="0">
-        <v>8765478392</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="0">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="F17" s="0">
-        <v>6878568766</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="0">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="0">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="0">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="0">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="0">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="0">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="0">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="0">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="0">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="0">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="0">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="0">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="0">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="0">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="0">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="0">
+      <c r="A33">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="0">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="0">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="0">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="0">
+      <c r="A37">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="0">
+      <c r="A38">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="0">
+      <c r="A39">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="0">
+      <c r="A40">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="0">
+      <c r="A41">
         <v>40</v>
       </c>
     </row>
